--- a/evaluation/issue_in_the_past.xlsx
+++ b/evaluation/issue_in_the_past.xlsx
@@ -1,29 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huanghuaxun/Documents/GitHub/ConfFix/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280CA16C-E78F-8441-821F-1498357DDBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="issue_in_the_past" sheetId="1" r:id="rId1"/>
+    <sheet name="issue_in_the_past" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issue_in_the_past!$B$1:$I$40</definedName>
-  </definedNames>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="180" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +24,9 @@
   </si>
   <si>
     <t>XML File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue-Inducing XML Element </t>
   </si>
   <si>
     <t>Issue-Inducing Attribute</t>
@@ -47,28 +39,10 @@
 [Please put down the download link here]</t>
   </si>
   <si>
-    <t>Warning</t>
-  </si>
-  <si>
-    <t>Successfully-repaired</t>
-  </si>
-  <si>
     <t>Corona-Warn-App-tan_input_digit</t>
   </si>
   <si>
     <t>cwa-app-android</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/corona-warn-app/cwa-app-android/commit/8296d1fe1c9024a10b34dfc275798b994ad29e39</t>
-    </r>
   </si>
   <si>
     <t>drawable-v23/tan_input_digit.xml</t>
@@ -103,9 +77,6 @@
     <t>https://github.com/rudmannn/ConfFix/tree/main/reproduction_videos/Corona-Warn/tan_input_digit</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Corona-Warn-App-tan_input_digit_error</t>
   </si>
   <si>
@@ -377,18 +348,6 @@
     <t>fenix__fragment_add_on_permissions</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/mozilla-mobile/fenix/commit/1b96db9</t>
-    </r>
-  </si>
-  <si>
     <t>fragment_add_on_permissions.xml</t>
   </si>
   <si>
@@ -415,18 +374,6 @@
     <t>fenix__ab6101b_welcom_icon</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/mozilla-mobile/fenix/commit/ab6101b0f</t>
-    </r>
-  </si>
-  <si>
     <t>onboarding_firefox_account.xml</t>
   </si>
   <si>
@@ -482,18 +429,6 @@
   </si>
   <si>
     <t>fenix__bdb2fa7_component_collection_creation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/mozilla-mobile/fenix/commit/bdb2fa7</t>
-    </r>
   </si>
   <si>
     <t>component_collection_creation.xml</t>
@@ -553,64 +488,7 @@
     <t>https://github.com/rudmannn/ConfFix/tree/main/reproduction_videos/fenix/add_new_devices</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;TextView
-                android:id="@+id/errorSummary"
-                android:drawableStart="@drawable/ic_info"
-                android:text="@string/sync_add_new_device_message"
-                android:drawablePadding="8dp"
-                android:drawableTint="@color/sync_error_text_color"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFE74025"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(Use app:drawableTint instead of android:drawableTint)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-                android:layout_width="wrap_content"
-                android:layout_height="wrap_content"
-                android:textColor="@color/sync_error_text_color"
-                android:textSize="16sp"
-                android:ellipsize="marquee"
-                android:fadingEdge="horizontal"
-                android:visibility="visible"/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>fenix__1b96db9_mozac_ic_link</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/mozilla-mobile/fenix/commit/a04b595</t>
-    </r>
   </si>
   <si>
     <t>fragment_add_on_details.xml</t>
@@ -647,18 +525,6 @@
   </si>
   <si>
     <t>lichobile</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/lichess-org/lichobile/commit/39cf262abd73f2dbbe57427661bf9d4a7833b37d</t>
-    </r>
   </si>
   <si>
     <t>drawable-v23/launch_splash.xml</t>
@@ -808,18 +674,6 @@
     <t>Neko</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/CarlosEsco/Neko/commit/81418a77</t>
-    </r>
-  </si>
-  <si>
     <t>reader_activity.xml</t>
   </si>
   <si>
@@ -843,18 +697,6 @@
   </si>
   <si>
     <t>proton-mail-android</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
-    </r>
   </si>
   <si>
     <t>activity_onboarding.xml</t>
@@ -1019,18 +861,6 @@
     <t>protonVpn</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/ProtonVPN/android-app/commit/20e3e67</t>
-    </r>
-  </si>
-  <si>
     <t>activity_tv_login.xml</t>
   </si>
   <si>
@@ -1062,84 +892,301 @@
     <t>https://github.com/rudmannn/ConfFix/tree/main/reproduction_videos/ProtonVPN/dialog_tv_upgrade</t>
   </si>
   <si>
-    <t xml:space="preserve">Issue-Inducing XML Element </t>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/corona-warn-app/cwa-app-android/commit/8296d1fe1c9024a10b34dfc275798b994ad29e39</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/corona-warn-app/cwa-app-android/commit/8296d1fe1c9024a10b34dfc275798b994ad29e39</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/mozilla-mobile/fenix/commit/1b96db9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/mozilla-mobile/fenix/commit/ab6101b0f</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/mozilla-mobile/fenix/commit/ab6101b0f</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/mozilla-mobile/fenix/commit/ab6101b0f</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/mozilla-mobile/fenix/commit/bdb2fa7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/mozilla-mobile/fenix/commit/a04b595</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/mozilla-mobile/fenix/commit/ab6101b0f</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/lichess-org/lichobile/commit/39cf262abd73f2dbbe57427661bf9d4a7833b37d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/CarlosEsco/Neko/commit/81418a77</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonMail/proton-mail-android/commit/f3466bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FF000000"/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/ProtonVPN/android-app/commit/20e3e67</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="8">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <sz val="10.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="10.0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="10.0"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="0000FF"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="9.0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="ui-monospace"/>
-      <charset val="134"/>
+      <sz val="9.0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE74025"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -1151,86 +1198,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment wrapText="false"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1347,57 +1370,57 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="67000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="73000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="81000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1432,7 +1455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1450,21 +1473,21 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -1475,122 +1498,135 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="111.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" customWidth="1"/>
-    <col min="5" max="5" width="93.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
-    <col min="8" max="8" width="114.83203125" customWidth="1"/>
-    <col min="9" max="9" width="109.83203125" customWidth="1"/>
-    <col min="10" max="10" width="30.5" customWidth="1"/>
-    <col min="11" max="30" width="15" customWidth="1"/>
+    <col min="1" max="1" width="46.0" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="32.0" hidden="false" customWidth="true"/>
+    <col min="3" max="3" width="134.0" hidden="false" customWidth="true"/>
+    <col min="4" max="4" width="72.0" hidden="false" customWidth="true"/>
+    <col min="5" max="5" width="112.0" hidden="false" customWidth="true"/>
+    <col min="6" max="6" width="41.0" hidden="false" customWidth="true"/>
+    <col min="7" max="7" width="31.0" hidden="false" customWidth="true"/>
+    <col min="8" max="8" width="138.0" hidden="false" customWidth="true"/>
+    <col min="9" max="9" width="132.0" hidden="false" customWidth="true"/>
+    <col min="10" max="10" width="36.0" hidden="false" customWidth="true"/>
+    <col min="11" max="11" width="17.0" hidden="false" customWidth="true"/>
+    <col min="12" max="12" width="17.0" hidden="false" customWidth="true"/>
+    <col min="13" max="13" width="17.0" hidden="false" customWidth="true"/>
+    <col min="14" max="14" width="17.0" hidden="false" customWidth="true"/>
+    <col min="15" max="15" width="17.0" hidden="false" customWidth="true"/>
+    <col min="16" max="16" width="17.0" hidden="false" customWidth="true"/>
+    <col min="17" max="17" width="17.0" hidden="false" customWidth="true"/>
+    <col min="18" max="18" width="17.0" hidden="false" customWidth="true"/>
+    <col min="19" max="19" width="17.0" hidden="false" customWidth="true"/>
+    <col min="20" max="20" width="17.0" hidden="false" customWidth="true"/>
+    <col min="21" max="21" width="17.0" hidden="false" customWidth="true"/>
+    <col min="22" max="22" width="17.0" hidden="false" customWidth="true"/>
+    <col min="23" max="23" width="17.0" hidden="false" customWidth="true"/>
+    <col min="24" max="24" width="17.0" hidden="false" customWidth="true"/>
+    <col min="25" max="25" width="17.0" hidden="false" customWidth="true"/>
+    <col min="26" max="26" width="17.0" hidden="false" customWidth="true"/>
+    <col min="27" max="27" width="17.0" hidden="false" customWidth="true"/>
+    <col min="28" max="28" width="17.0" hidden="false" customWidth="true"/>
+    <col min="29" max="29" width="17.0" hidden="false" customWidth="true"/>
+    <col min="30" max="30" width="17.0" hidden="false" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="36" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="36.0" customHeight="true">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-    </row>
-    <row r="2" spans="1:30" ht="306">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -1612,37 +1648,33 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:30" ht="306">
+    <row r="3">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1664,37 +1696,33 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:30" ht="170">
+    <row r="4">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1716,37 +1744,33 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" ht="153">
+    <row r="5">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1768,39 +1792,35 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:30" ht="187">
+    <row r="6">
       <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="13"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1820,39 +1840,35 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:30" ht="204">
+    <row r="7">
       <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="13"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1872,39 +1888,35 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" ht="204">
+    <row r="8">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1924,37 +1936,33 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="255">
+    <row r="9">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1976,37 +1984,33 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" ht="221">
+    <row r="10">
       <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2028,37 +2032,33 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" ht="221">
+    <row r="11">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2080,37 +2080,33 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" ht="221">
+    <row r="12">
       <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -2132,37 +2128,33 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" ht="255">
+    <row r="13">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -2184,37 +2176,33 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" ht="204">
+    <row r="14">
       <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -2236,37 +2224,33 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" ht="170">
+    <row r="15">
       <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -2288,37 +2272,33 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" ht="153">
+    <row r="16">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -2340,37 +2320,33 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" ht="187">
+    <row r="17">
       <c r="A17" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -2392,37 +2368,33 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" ht="323">
+    <row r="18">
       <c r="A18" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>82</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -2444,37 +2416,33 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" ht="238">
+    <row r="19">
       <c r="A19" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -2496,37 +2464,33 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" ht="153">
+    <row r="20">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -2548,37 +2512,33 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" ht="136">
+    <row r="21">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -2600,38 +2560,35 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" ht="255">
+    <row r="22">
       <c r="A22" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="8"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -2651,37 +2608,33 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" ht="153">
+    <row r="23">
       <c r="A23" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -2703,37 +2656,33 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" ht="153">
+    <row r="24">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -2755,37 +2704,33 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" ht="153">
+    <row r="25">
       <c r="A25" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -2807,37 +2752,33 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" ht="153">
+    <row r="26">
       <c r="A26" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -2859,37 +2800,33 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" ht="153">
+    <row r="27">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -2911,37 +2848,33 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" ht="153">
+    <row r="28">
       <c r="A28" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -2963,37 +2896,33 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" ht="153">
+    <row r="29">
       <c r="A29" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -3015,37 +2944,33 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="85">
+    <row r="30">
       <c r="A30" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3067,37 +2992,33 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" ht="221">
+    <row r="31">
       <c r="A31" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -3119,37 +3040,33 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" spans="1:30" ht="204">
+    <row r="32">
       <c r="A32" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -3171,37 +3088,33 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
     </row>
-    <row r="33" spans="1:30" ht="204">
+    <row r="33">
       <c r="A33" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -3223,37 +3136,33 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
     </row>
-    <row r="34" spans="1:30" ht="221">
+    <row r="34">
       <c r="A34" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -3275,37 +3184,33 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
     </row>
-    <row r="35" spans="1:30" ht="170">
+    <row r="35">
       <c r="A35" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="F35" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -3327,37 +3232,33 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
     </row>
-    <row r="36" spans="1:30" ht="204">
+    <row r="36">
       <c r="A36" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>153</v>
+        <v>126</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -3379,37 +3280,33 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
     </row>
-    <row r="37" spans="1:30" ht="170">
+    <row r="37">
       <c r="A37" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -3431,37 +3328,33 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
     </row>
-    <row r="38" spans="1:30" ht="170">
+    <row r="38">
       <c r="A38" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -3483,37 +3376,33 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
     </row>
-    <row r="39" spans="1:30" ht="187">
+    <row r="39">
       <c r="A39" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3535,37 +3424,33 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
     </row>
-    <row r="40" spans="1:30" ht="187">
+    <row r="40">
       <c r="A40" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -3587,7 +3472,7 @@
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
     </row>
-    <row r="41" spans="1:30" ht="16">
+    <row r="41">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="8"/>
@@ -3619,7 +3504,7 @@
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
     </row>
-    <row r="42" spans="1:30" ht="16">
+    <row r="42">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
@@ -3651,7 +3536,7 @@
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
     </row>
-    <row r="43" spans="1:30" ht="16">
+    <row r="43">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
@@ -3683,10 +3568,10 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
     </row>
-    <row r="44" spans="1:30" ht="16">
+    <row r="44">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -3715,10 +3600,10 @@
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
     </row>
-    <row r="45" spans="1:30" ht="16">
+    <row r="45">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -3747,10 +3632,10 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
     </row>
-    <row r="46" spans="1:30" ht="16">
+    <row r="46">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -3779,10 +3664,10 @@
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
     </row>
-    <row r="47" spans="1:30" ht="16">
+    <row r="47">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -3811,10 +3696,10 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
     </row>
-    <row r="48" spans="1:30" ht="16">
+    <row r="48">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3843,10 +3728,10 @@
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
     </row>
-    <row r="49" spans="1:30" ht="16">
+    <row r="49">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -3875,10 +3760,10 @@
       <c r="AC49" s="8"/>
       <c r="AD49" s="8"/>
     </row>
-    <row r="50" spans="1:30" ht="16">
+    <row r="50">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -3907,10 +3792,10 @@
       <c r="AC50" s="8"/>
       <c r="AD50" s="8"/>
     </row>
-    <row r="51" spans="1:30" ht="16">
+    <row r="51">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -3939,10 +3824,10 @@
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
     </row>
-    <row r="52" spans="1:30" ht="16">
+    <row r="52">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -3971,10 +3856,10 @@
       <c r="AC52" s="8"/>
       <c r="AD52" s="8"/>
     </row>
-    <row r="53" spans="1:30" ht="16">
+    <row r="53">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -4003,10 +3888,10 @@
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
     </row>
-    <row r="54" spans="1:30" ht="16">
+    <row r="54">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -4035,10 +3920,10 @@
       <c r="AC54" s="8"/>
       <c r="AD54" s="8"/>
     </row>
-    <row r="55" spans="1:30" ht="16">
+    <row r="55">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -4067,10 +3952,10 @@
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
     </row>
-    <row r="56" spans="1:30" ht="16">
+    <row r="56">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -4099,10 +3984,10 @@
       <c r="AC56" s="8"/>
       <c r="AD56" s="8"/>
     </row>
-    <row r="57" spans="1:30" ht="16">
+    <row r="57">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -4131,10 +4016,10 @@
       <c r="AC57" s="8"/>
       <c r="AD57" s="8"/>
     </row>
-    <row r="58" spans="1:30" ht="16">
+    <row r="58">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -4163,10 +4048,10 @@
       <c r="AC58" s="8"/>
       <c r="AD58" s="8"/>
     </row>
-    <row r="59" spans="1:30" ht="16">
+    <row r="59">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -4195,10 +4080,10 @@
       <c r="AC59" s="8"/>
       <c r="AD59" s="8"/>
     </row>
-    <row r="60" spans="1:30" ht="16">
+    <row r="60">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -4227,10 +4112,10 @@
       <c r="AC60" s="8"/>
       <c r="AD60" s="8"/>
     </row>
-    <row r="61" spans="1:30" ht="16">
+    <row r="61">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -4259,10 +4144,10 @@
       <c r="AC61" s="8"/>
       <c r="AD61" s="8"/>
     </row>
-    <row r="62" spans="1:30" ht="16">
+    <row r="62">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -4291,10 +4176,10 @@
       <c r="AC62" s="8"/>
       <c r="AD62" s="8"/>
     </row>
-    <row r="63" spans="1:30" ht="16">
+    <row r="63">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -4323,10 +4208,10 @@
       <c r="AC63" s="8"/>
       <c r="AD63" s="8"/>
     </row>
-    <row r="64" spans="1:30" ht="16">
+    <row r="64">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4355,10 +4240,10 @@
       <c r="AC64" s="8"/>
       <c r="AD64" s="8"/>
     </row>
-    <row r="65" spans="1:30" ht="16">
+    <row r="65">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -4387,10 +4272,10 @@
       <c r="AC65" s="8"/>
       <c r="AD65" s="8"/>
     </row>
-    <row r="66" spans="1:30" ht="16">
+    <row r="66">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -4419,10 +4304,10 @@
       <c r="AC66" s="8"/>
       <c r="AD66" s="8"/>
     </row>
-    <row r="67" spans="1:30" ht="16">
+    <row r="67">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -4451,10 +4336,10 @@
       <c r="AC67" s="8"/>
       <c r="AD67" s="8"/>
     </row>
-    <row r="68" spans="1:30" ht="16">
+    <row r="68">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -4483,10 +4368,10 @@
       <c r="AC68" s="8"/>
       <c r="AD68" s="8"/>
     </row>
-    <row r="69" spans="1:30" ht="16">
+    <row r="69">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -4515,10 +4400,10 @@
       <c r="AC69" s="8"/>
       <c r="AD69" s="8"/>
     </row>
-    <row r="70" spans="1:30" ht="16">
+    <row r="70">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -4547,10 +4432,10 @@
       <c r="AC70" s="8"/>
       <c r="AD70" s="8"/>
     </row>
-    <row r="71" spans="1:30" ht="16">
+    <row r="71">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -4579,10 +4464,10 @@
       <c r="AC71" s="8"/>
       <c r="AD71" s="8"/>
     </row>
-    <row r="72" spans="1:30" ht="16">
+    <row r="72">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -4611,10 +4496,10 @@
       <c r="AC72" s="8"/>
       <c r="AD72" s="8"/>
     </row>
-    <row r="73" spans="1:30" ht="16">
+    <row r="73">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -4643,10 +4528,10 @@
       <c r="AC73" s="8"/>
       <c r="AD73" s="8"/>
     </row>
-    <row r="74" spans="1:30" ht="16">
+    <row r="74">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -4675,7 +4560,7 @@
       <c r="AC74" s="8"/>
       <c r="AD74" s="8"/>
     </row>
-    <row r="75" spans="1:30" ht="16">
+    <row r="75">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="8"/>
@@ -4707,7 +4592,7 @@
       <c r="AC75" s="8"/>
       <c r="AD75" s="8"/>
     </row>
-    <row r="76" spans="1:30" ht="16">
+    <row r="76">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="8"/>
@@ -4739,7 +4624,7 @@
       <c r="AC76" s="8"/>
       <c r="AD76" s="8"/>
     </row>
-    <row r="77" spans="1:30" ht="16">
+    <row r="77">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="8"/>
@@ -4771,7 +4656,7 @@
       <c r="AC77" s="8"/>
       <c r="AD77" s="8"/>
     </row>
-    <row r="78" spans="1:30" ht="16">
+    <row r="78">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
@@ -4803,7 +4688,7 @@
       <c r="AC78" s="8"/>
       <c r="AD78" s="8"/>
     </row>
-    <row r="79" spans="1:30" ht="16">
+    <row r="79">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="8"/>
@@ -4835,7 +4720,7 @@
       <c r="AC79" s="8"/>
       <c r="AD79" s="8"/>
     </row>
-    <row r="80" spans="1:30" ht="16">
+    <row r="80">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="8"/>
@@ -4867,7 +4752,7 @@
       <c r="AC80" s="8"/>
       <c r="AD80" s="8"/>
     </row>
-    <row r="81" spans="1:30" ht="16">
+    <row r="81">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="8"/>
@@ -4899,7 +4784,7 @@
       <c r="AC81" s="8"/>
       <c r="AD81" s="8"/>
     </row>
-    <row r="82" spans="1:30" ht="16">
+    <row r="82">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="8"/>
@@ -4931,7 +4816,7 @@
       <c r="AC82" s="8"/>
       <c r="AD82" s="8"/>
     </row>
-    <row r="83" spans="1:30" ht="16">
+    <row r="83">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="8"/>
@@ -4963,7 +4848,7 @@
       <c r="AC83" s="8"/>
       <c r="AD83" s="8"/>
     </row>
-    <row r="84" spans="1:30" ht="16">
+    <row r="84">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="8"/>
@@ -4995,7 +4880,7 @@
       <c r="AC84" s="8"/>
       <c r="AD84" s="8"/>
     </row>
-    <row r="85" spans="1:30" ht="16">
+    <row r="85">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="8"/>
@@ -5027,7 +4912,7 @@
       <c r="AC85" s="8"/>
       <c r="AD85" s="8"/>
     </row>
-    <row r="86" spans="1:30" ht="16">
+    <row r="86">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="8"/>
@@ -5059,7 +4944,7 @@
       <c r="AC86" s="8"/>
       <c r="AD86" s="8"/>
     </row>
-    <row r="87" spans="1:30" ht="16">
+    <row r="87">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="8"/>
@@ -5091,7 +4976,7 @@
       <c r="AC87" s="8"/>
       <c r="AD87" s="8"/>
     </row>
-    <row r="88" spans="1:30" ht="16">
+    <row r="88">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="8"/>
@@ -5123,7 +5008,7 @@
       <c r="AC88" s="8"/>
       <c r="AD88" s="8"/>
     </row>
-    <row r="89" spans="1:30" ht="16">
+    <row r="89">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="8"/>
@@ -5155,7 +5040,7 @@
       <c r="AC89" s="8"/>
       <c r="AD89" s="8"/>
     </row>
-    <row r="90" spans="1:30" ht="16">
+    <row r="90">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="8"/>
@@ -5187,7 +5072,7 @@
       <c r="AC90" s="8"/>
       <c r="AD90" s="8"/>
     </row>
-    <row r="91" spans="1:30" ht="16">
+    <row r="91">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="8"/>
@@ -5219,7 +5104,7 @@
       <c r="AC91" s="8"/>
       <c r="AD91" s="8"/>
     </row>
-    <row r="92" spans="1:30" ht="16">
+    <row r="92">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="8"/>
@@ -5251,7 +5136,7 @@
       <c r="AC92" s="8"/>
       <c r="AD92" s="8"/>
     </row>
-    <row r="93" spans="1:30" ht="16">
+    <row r="93">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="8"/>
@@ -5283,7 +5168,7 @@
       <c r="AC93" s="8"/>
       <c r="AD93" s="8"/>
     </row>
-    <row r="94" spans="1:30" ht="16">
+    <row r="94">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="8"/>
@@ -5315,7 +5200,7 @@
       <c r="AC94" s="8"/>
       <c r="AD94" s="8"/>
     </row>
-    <row r="95" spans="1:30" ht="16">
+    <row r="95">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="8"/>
@@ -5347,7 +5232,7 @@
       <c r="AC95" s="8"/>
       <c r="AD95" s="8"/>
     </row>
-    <row r="96" spans="1:30" ht="16">
+    <row r="96">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="8"/>
@@ -5379,7 +5264,7 @@
       <c r="AC96" s="8"/>
       <c r="AD96" s="8"/>
     </row>
-    <row r="97" spans="1:30" ht="16">
+    <row r="97">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="8"/>
@@ -5411,7 +5296,7 @@
       <c r="AC97" s="8"/>
       <c r="AD97" s="8"/>
     </row>
-    <row r="98" spans="1:30" ht="16">
+    <row r="98">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="8"/>
@@ -5443,7 +5328,7 @@
       <c r="AC98" s="8"/>
       <c r="AD98" s="8"/>
     </row>
-    <row r="99" spans="1:30" ht="16">
+    <row r="99">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="8"/>
@@ -5475,7 +5360,7 @@
       <c r="AC99" s="8"/>
       <c r="AD99" s="8"/>
     </row>
-    <row r="100" spans="1:30" ht="16">
+    <row r="100">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="8"/>
@@ -5507,7 +5392,7 @@
       <c r="AC100" s="8"/>
       <c r="AD100" s="8"/>
     </row>
-    <row r="101" spans="1:30" ht="16">
+    <row r="101">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="8"/>
@@ -5539,7 +5424,7 @@
       <c r="AC101" s="8"/>
       <c r="AD101" s="8"/>
     </row>
-    <row r="102" spans="1:30" ht="16">
+    <row r="102">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="8"/>
@@ -5571,7 +5456,7 @@
       <c r="AC102" s="8"/>
       <c r="AD102" s="8"/>
     </row>
-    <row r="103" spans="1:30" ht="16">
+    <row r="103">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="8"/>
@@ -5603,7 +5488,7 @@
       <c r="AC103" s="8"/>
       <c r="AD103" s="8"/>
     </row>
-    <row r="104" spans="1:30" ht="16">
+    <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="8"/>
@@ -5635,7 +5520,7 @@
       <c r="AC104" s="8"/>
       <c r="AD104" s="8"/>
     </row>
-    <row r="105" spans="1:30" ht="16">
+    <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="8"/>
@@ -5667,7 +5552,7 @@
       <c r="AC105" s="8"/>
       <c r="AD105" s="8"/>
     </row>
-    <row r="106" spans="1:30" ht="16">
+    <row r="106">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="8"/>
@@ -5699,7 +5584,7 @@
       <c r="AC106" s="8"/>
       <c r="AD106" s="8"/>
     </row>
-    <row r="107" spans="1:30" ht="16">
+    <row r="107">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="8"/>
@@ -5731,7 +5616,7 @@
       <c r="AC107" s="8"/>
       <c r="AD107" s="8"/>
     </row>
-    <row r="108" spans="1:30" ht="16">
+    <row r="108">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="8"/>
@@ -5763,7 +5648,7 @@
       <c r="AC108" s="8"/>
       <c r="AD108" s="8"/>
     </row>
-    <row r="109" spans="1:30" ht="16">
+    <row r="109">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="8"/>
@@ -5795,7 +5680,7 @@
       <c r="AC109" s="8"/>
       <c r="AD109" s="8"/>
     </row>
-    <row r="110" spans="1:30" ht="16">
+    <row r="110">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="8"/>
@@ -5827,7 +5712,7 @@
       <c r="AC110" s="8"/>
       <c r="AD110" s="8"/>
     </row>
-    <row r="111" spans="1:30" ht="16">
+    <row r="111">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="8"/>
@@ -5859,7 +5744,7 @@
       <c r="AC111" s="8"/>
       <c r="AD111" s="8"/>
     </row>
-    <row r="112" spans="1:30" ht="16">
+    <row r="112">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="8"/>
@@ -5891,7 +5776,7 @@
       <c r="AC112" s="8"/>
       <c r="AD112" s="8"/>
     </row>
-    <row r="113" spans="1:30" ht="16">
+    <row r="113">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="8"/>
@@ -5923,7 +5808,7 @@
       <c r="AC113" s="8"/>
       <c r="AD113" s="8"/>
     </row>
-    <row r="114" spans="1:30" ht="16">
+    <row r="114">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="8"/>
@@ -5955,7 +5840,7 @@
       <c r="AC114" s="8"/>
       <c r="AD114" s="8"/>
     </row>
-    <row r="115" spans="1:30" ht="16">
+    <row r="115">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="8"/>
@@ -5987,7 +5872,7 @@
       <c r="AC115" s="8"/>
       <c r="AD115" s="8"/>
     </row>
-    <row r="116" spans="1:30" ht="16">
+    <row r="116">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="8"/>
@@ -6019,7 +5904,7 @@
       <c r="AC116" s="8"/>
       <c r="AD116" s="8"/>
     </row>
-    <row r="117" spans="1:30" ht="16">
+    <row r="117">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="8"/>
@@ -6051,7 +5936,7 @@
       <c r="AC117" s="8"/>
       <c r="AD117" s="8"/>
     </row>
-    <row r="118" spans="1:30" ht="16">
+    <row r="118">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="8"/>
@@ -6083,7 +5968,7 @@
       <c r="AC118" s="8"/>
       <c r="AD118" s="8"/>
     </row>
-    <row r="119" spans="1:30" ht="16">
+    <row r="119">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="8"/>
@@ -6115,7 +6000,7 @@
       <c r="AC119" s="8"/>
       <c r="AD119" s="8"/>
     </row>
-    <row r="120" spans="1:30" ht="16">
+    <row r="120">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="8"/>
@@ -6147,7 +6032,7 @@
       <c r="AC120" s="8"/>
       <c r="AD120" s="8"/>
     </row>
-    <row r="121" spans="1:30" ht="16">
+    <row r="121">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="8"/>
@@ -6179,7 +6064,7 @@
       <c r="AC121" s="8"/>
       <c r="AD121" s="8"/>
     </row>
-    <row r="122" spans="1:30" ht="16">
+    <row r="122">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="8"/>
@@ -6211,7 +6096,7 @@
       <c r="AC122" s="8"/>
       <c r="AD122" s="8"/>
     </row>
-    <row r="123" spans="1:30" ht="16">
+    <row r="123">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="8"/>
@@ -6243,7 +6128,7 @@
       <c r="AC123" s="8"/>
       <c r="AD123" s="8"/>
     </row>
-    <row r="124" spans="1:30" ht="16">
+    <row r="124">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="8"/>
@@ -6275,7 +6160,7 @@
       <c r="AC124" s="8"/>
       <c r="AD124" s="8"/>
     </row>
-    <row r="125" spans="1:30" ht="16">
+    <row r="125">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="8"/>
@@ -6307,7 +6192,7 @@
       <c r="AC125" s="8"/>
       <c r="AD125" s="8"/>
     </row>
-    <row r="126" spans="1:30" ht="16">
+    <row r="126">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="8"/>
@@ -6339,7 +6224,7 @@
       <c r="AC126" s="8"/>
       <c r="AD126" s="8"/>
     </row>
-    <row r="127" spans="1:30" ht="16">
+    <row r="127">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="8"/>
@@ -6371,7 +6256,7 @@
       <c r="AC127" s="8"/>
       <c r="AD127" s="8"/>
     </row>
-    <row r="128" spans="1:30" ht="16">
+    <row r="128">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="8"/>
@@ -6403,7 +6288,7 @@
       <c r="AC128" s="8"/>
       <c r="AD128" s="8"/>
     </row>
-    <row r="129" spans="1:30" ht="16">
+    <row r="129">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="8"/>
@@ -6435,7 +6320,7 @@
       <c r="AC129" s="8"/>
       <c r="AD129" s="8"/>
     </row>
-    <row r="130" spans="1:30" ht="16">
+    <row r="130">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="8"/>
@@ -6467,7 +6352,7 @@
       <c r="AC130" s="8"/>
       <c r="AD130" s="8"/>
     </row>
-    <row r="131" spans="1:30" ht="16">
+    <row r="131">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="8"/>
@@ -6499,7 +6384,7 @@
       <c r="AC131" s="8"/>
       <c r="AD131" s="8"/>
     </row>
-    <row r="132" spans="1:30" ht="16">
+    <row r="132">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="8"/>
@@ -6531,7 +6416,7 @@
       <c r="AC132" s="8"/>
       <c r="AD132" s="8"/>
     </row>
-    <row r="133" spans="1:30" ht="16">
+    <row r="133">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="8"/>
@@ -6563,7 +6448,7 @@
       <c r="AC133" s="8"/>
       <c r="AD133" s="8"/>
     </row>
-    <row r="134" spans="1:30" ht="16">
+    <row r="134">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="8"/>
@@ -6595,7 +6480,7 @@
       <c r="AC134" s="8"/>
       <c r="AD134" s="8"/>
     </row>
-    <row r="135" spans="1:30" ht="16">
+    <row r="135">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="8"/>
@@ -6627,7 +6512,7 @@
       <c r="AC135" s="8"/>
       <c r="AD135" s="8"/>
     </row>
-    <row r="136" spans="1:30" ht="16">
+    <row r="136">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="8"/>
@@ -6659,7 +6544,7 @@
       <c r="AC136" s="8"/>
       <c r="AD136" s="8"/>
     </row>
-    <row r="137" spans="1:30" ht="16">
+    <row r="137">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="8"/>
@@ -6691,7 +6576,7 @@
       <c r="AC137" s="8"/>
       <c r="AD137" s="8"/>
     </row>
-    <row r="138" spans="1:30" ht="16">
+    <row r="138">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="8"/>
@@ -6723,7 +6608,7 @@
       <c r="AC138" s="8"/>
       <c r="AD138" s="8"/>
     </row>
-    <row r="139" spans="1:30" ht="16">
+    <row r="139">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="8"/>
@@ -6755,7 +6640,7 @@
       <c r="AC139" s="8"/>
       <c r="AD139" s="8"/>
     </row>
-    <row r="140" spans="1:30" ht="16">
+    <row r="140">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="8"/>
@@ -6787,7 +6672,7 @@
       <c r="AC140" s="8"/>
       <c r="AD140" s="8"/>
     </row>
-    <row r="141" spans="1:30" ht="16">
+    <row r="141">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="8"/>
@@ -6819,7 +6704,7 @@
       <c r="AC141" s="8"/>
       <c r="AD141" s="8"/>
     </row>
-    <row r="142" spans="1:30" ht="16">
+    <row r="142">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="8"/>
@@ -6851,7 +6736,7 @@
       <c r="AC142" s="8"/>
       <c r="AD142" s="8"/>
     </row>
-    <row r="143" spans="1:30" ht="16">
+    <row r="143">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="8"/>
@@ -6883,7 +6768,7 @@
       <c r="AC143" s="8"/>
       <c r="AD143" s="8"/>
     </row>
-    <row r="144" spans="1:30" ht="16">
+    <row r="144">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="8"/>
@@ -6915,7 +6800,7 @@
       <c r="AC144" s="8"/>
       <c r="AD144" s="8"/>
     </row>
-    <row r="145" spans="1:30" ht="16">
+    <row r="145">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="8"/>
@@ -6947,7 +6832,7 @@
       <c r="AC145" s="8"/>
       <c r="AD145" s="8"/>
     </row>
-    <row r="146" spans="1:30" ht="16">
+    <row r="146">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="8"/>
@@ -6979,7 +6864,7 @@
       <c r="AC146" s="8"/>
       <c r="AD146" s="8"/>
     </row>
-    <row r="147" spans="1:30" ht="16">
+    <row r="147">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="8"/>
@@ -7011,7 +6896,7 @@
       <c r="AC147" s="8"/>
       <c r="AD147" s="8"/>
     </row>
-    <row r="148" spans="1:30" ht="16">
+    <row r="148">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="8"/>
@@ -7043,7 +6928,7 @@
       <c r="AC148" s="8"/>
       <c r="AD148" s="8"/>
     </row>
-    <row r="149" spans="1:30" ht="16">
+    <row r="149">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="8"/>
@@ -7075,7 +6960,7 @@
       <c r="AC149" s="8"/>
       <c r="AD149" s="8"/>
     </row>
-    <row r="150" spans="1:30" ht="16">
+    <row r="150">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="8"/>
@@ -7107,7 +6992,7 @@
       <c r="AC150" s="8"/>
       <c r="AD150" s="8"/>
     </row>
-    <row r="151" spans="1:30" ht="16">
+    <row r="151">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="8"/>
@@ -7139,7 +7024,7 @@
       <c r="AC151" s="8"/>
       <c r="AD151" s="8"/>
     </row>
-    <row r="152" spans="1:30" ht="16">
+    <row r="152">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="8"/>
@@ -7171,7 +7056,7 @@
       <c r="AC152" s="8"/>
       <c r="AD152" s="8"/>
     </row>
-    <row r="153" spans="1:30" ht="16">
+    <row r="153">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="8"/>
@@ -7203,7 +7088,7 @@
       <c r="AC153" s="8"/>
       <c r="AD153" s="8"/>
     </row>
-    <row r="154" spans="1:30" ht="16">
+    <row r="154">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="8"/>
@@ -7235,7 +7120,7 @@
       <c r="AC154" s="8"/>
       <c r="AD154" s="8"/>
     </row>
-    <row r="155" spans="1:30" ht="16">
+    <row r="155">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="8"/>
@@ -7267,7 +7152,7 @@
       <c r="AC155" s="8"/>
       <c r="AD155" s="8"/>
     </row>
-    <row r="156" spans="1:30" ht="16">
+    <row r="156">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="8"/>
@@ -7299,7 +7184,7 @@
       <c r="AC156" s="8"/>
       <c r="AD156" s="8"/>
     </row>
-    <row r="157" spans="1:30" ht="16">
+    <row r="157">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="8"/>
@@ -7331,7 +7216,7 @@
       <c r="AC157" s="8"/>
       <c r="AD157" s="8"/>
     </row>
-    <row r="158" spans="1:30" ht="16">
+    <row r="158">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="8"/>
@@ -7363,7 +7248,7 @@
       <c r="AC158" s="8"/>
       <c r="AD158" s="8"/>
     </row>
-    <row r="159" spans="1:30" ht="16">
+    <row r="159">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="8"/>
@@ -7395,7 +7280,7 @@
       <c r="AC159" s="8"/>
       <c r="AD159" s="8"/>
     </row>
-    <row r="160" spans="1:30" ht="16">
+    <row r="160">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="8"/>
@@ -7427,7 +7312,7 @@
       <c r="AC160" s="8"/>
       <c r="AD160" s="8"/>
     </row>
-    <row r="161" spans="1:30" ht="16">
+    <row r="161">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="8"/>
@@ -7459,7 +7344,7 @@
       <c r="AC161" s="8"/>
       <c r="AD161" s="8"/>
     </row>
-    <row r="162" spans="1:30" ht="16">
+    <row r="162">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="8"/>
@@ -7491,7 +7376,7 @@
       <c r="AC162" s="8"/>
       <c r="AD162" s="8"/>
     </row>
-    <row r="163" spans="1:30" ht="16">
+    <row r="163">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="8"/>
@@ -7523,7 +7408,7 @@
       <c r="AC163" s="8"/>
       <c r="AD163" s="8"/>
     </row>
-    <row r="164" spans="1:30" ht="16">
+    <row r="164">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="8"/>
@@ -7555,7 +7440,7 @@
       <c r="AC164" s="8"/>
       <c r="AD164" s="8"/>
     </row>
-    <row r="165" spans="1:30" ht="16">
+    <row r="165">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="8"/>
@@ -7587,7 +7472,7 @@
       <c r="AC165" s="8"/>
       <c r="AD165" s="8"/>
     </row>
-    <row r="166" spans="1:30" ht="16">
+    <row r="166">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="8"/>
@@ -7619,7 +7504,7 @@
       <c r="AC166" s="8"/>
       <c r="AD166" s="8"/>
     </row>
-    <row r="167" spans="1:30" ht="16">
+    <row r="167">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="8"/>
@@ -7651,7 +7536,7 @@
       <c r="AC167" s="8"/>
       <c r="AD167" s="8"/>
     </row>
-    <row r="168" spans="1:30" ht="16">
+    <row r="168">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="8"/>
@@ -7683,7 +7568,7 @@
       <c r="AC168" s="8"/>
       <c r="AD168" s="8"/>
     </row>
-    <row r="169" spans="1:30" ht="16">
+    <row r="169">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="8"/>
@@ -7715,7 +7600,7 @@
       <c r="AC169" s="8"/>
       <c r="AD169" s="8"/>
     </row>
-    <row r="170" spans="1:30" ht="16">
+    <row r="170">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="8"/>
@@ -7747,7 +7632,7 @@
       <c r="AC170" s="8"/>
       <c r="AD170" s="8"/>
     </row>
-    <row r="171" spans="1:30" ht="16">
+    <row r="171">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="8"/>
@@ -7779,7 +7664,7 @@
       <c r="AC171" s="8"/>
       <c r="AD171" s="8"/>
     </row>
-    <row r="172" spans="1:30" ht="16">
+    <row r="172">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="8"/>
@@ -7811,7 +7696,7 @@
       <c r="AC172" s="8"/>
       <c r="AD172" s="8"/>
     </row>
-    <row r="173" spans="1:30" ht="16">
+    <row r="173">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="8"/>
@@ -7843,7 +7728,7 @@
       <c r="AC173" s="8"/>
       <c r="AD173" s="8"/>
     </row>
-    <row r="174" spans="1:30" ht="16">
+    <row r="174">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="8"/>
@@ -7875,7 +7760,7 @@
       <c r="AC174" s="8"/>
       <c r="AD174" s="8"/>
     </row>
-    <row r="175" spans="1:30" ht="16">
+    <row r="175">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="8"/>
@@ -7907,7 +7792,7 @@
       <c r="AC175" s="8"/>
       <c r="AD175" s="8"/>
     </row>
-    <row r="176" spans="1:30" ht="16">
+    <row r="176">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="8"/>
@@ -7939,7 +7824,7 @@
       <c r="AC176" s="8"/>
       <c r="AD176" s="8"/>
     </row>
-    <row r="177" spans="1:30" ht="16">
+    <row r="177">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="8"/>
@@ -7971,7 +7856,7 @@
       <c r="AC177" s="8"/>
       <c r="AD177" s="8"/>
     </row>
-    <row r="178" spans="1:30" ht="16">
+    <row r="178">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="8"/>
@@ -8003,7 +7888,7 @@
       <c r="AC178" s="8"/>
       <c r="AD178" s="8"/>
     </row>
-    <row r="179" spans="1:30" ht="16">
+    <row r="179">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="8"/>
@@ -8035,97 +7920,802 @@
       <c r="AC179" s="8"/>
       <c r="AD179" s="8"/>
     </row>
+    <row r="180">
+      <c r="A180" s="15"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="12"/>
+      <c r="S180" s="12"/>
+      <c r="T180" s="12"/>
+      <c r="U180" s="12"/>
+      <c r="V180" s="12"/>
+      <c r="W180" s="12"/>
+      <c r="X180" s="12"/>
+      <c r="Y180" s="12"/>
+      <c r="Z180" s="12"/>
+      <c r="AA180" s="12"/>
+      <c r="AB180" s="12"/>
+      <c r="AC180" s="12"/>
+      <c r="AD180" s="12"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="15"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="12"/>
+      <c r="R181" s="12"/>
+      <c r="S181" s="12"/>
+      <c r="T181" s="12"/>
+      <c r="U181" s="12"/>
+      <c r="V181" s="12"/>
+      <c r="W181" s="12"/>
+      <c r="X181" s="12"/>
+      <c r="Y181" s="12"/>
+      <c r="Z181" s="12"/>
+      <c r="AA181" s="12"/>
+      <c r="AB181" s="12"/>
+      <c r="AC181" s="12"/>
+      <c r="AD181" s="12"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="15"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="12"/>
+      <c r="S182" s="12"/>
+      <c r="T182" s="12"/>
+      <c r="U182" s="12"/>
+      <c r="V182" s="12"/>
+      <c r="W182" s="12"/>
+      <c r="X182" s="12"/>
+      <c r="Y182" s="12"/>
+      <c r="Z182" s="12"/>
+      <c r="AA182" s="12"/>
+      <c r="AB182" s="12"/>
+      <c r="AC182" s="12"/>
+      <c r="AD182" s="12"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="15"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="12"/>
+      <c r="S183" s="12"/>
+      <c r="T183" s="12"/>
+      <c r="U183" s="12"/>
+      <c r="V183" s="12"/>
+      <c r="W183" s="12"/>
+      <c r="X183" s="12"/>
+      <c r="Y183" s="12"/>
+      <c r="Z183" s="12"/>
+      <c r="AA183" s="12"/>
+      <c r="AB183" s="12"/>
+      <c r="AC183" s="12"/>
+      <c r="AD183" s="12"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="15"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="12"/>
+      <c r="S184" s="12"/>
+      <c r="T184" s="12"/>
+      <c r="U184" s="12"/>
+      <c r="V184" s="12"/>
+      <c r="W184" s="12"/>
+      <c r="X184" s="12"/>
+      <c r="Y184" s="12"/>
+      <c r="Z184" s="12"/>
+      <c r="AA184" s="12"/>
+      <c r="AB184" s="12"/>
+      <c r="AC184" s="12"/>
+      <c r="AD184" s="12"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="15"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="12"/>
+      <c r="S185" s="12"/>
+      <c r="T185" s="12"/>
+      <c r="U185" s="12"/>
+      <c r="V185" s="12"/>
+      <c r="W185" s="12"/>
+      <c r="X185" s="12"/>
+      <c r="Y185" s="12"/>
+      <c r="Z185" s="12"/>
+      <c r="AA185" s="12"/>
+      <c r="AB185" s="12"/>
+      <c r="AC185" s="12"/>
+      <c r="AD185" s="12"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="15"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="12"/>
+      <c r="S186" s="12"/>
+      <c r="T186" s="12"/>
+      <c r="U186" s="12"/>
+      <c r="V186" s="12"/>
+      <c r="W186" s="12"/>
+      <c r="X186" s="12"/>
+      <c r="Y186" s="12"/>
+      <c r="Z186" s="12"/>
+      <c r="AA186" s="12"/>
+      <c r="AB186" s="12"/>
+      <c r="AC186" s="12"/>
+      <c r="AD186" s="12"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="15"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="12"/>
+      <c r="S187" s="12"/>
+      <c r="T187" s="12"/>
+      <c r="U187" s="12"/>
+      <c r="V187" s="12"/>
+      <c r="W187" s="12"/>
+      <c r="X187" s="12"/>
+      <c r="Y187" s="12"/>
+      <c r="Z187" s="12"/>
+      <c r="AA187" s="12"/>
+      <c r="AB187" s="12"/>
+      <c r="AC187" s="12"/>
+      <c r="AD187" s="12"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="15"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="12"/>
+      <c r="S188" s="12"/>
+      <c r="T188" s="12"/>
+      <c r="U188" s="12"/>
+      <c r="V188" s="12"/>
+      <c r="W188" s="12"/>
+      <c r="X188" s="12"/>
+      <c r="Y188" s="12"/>
+      <c r="Z188" s="12"/>
+      <c r="AA188" s="12"/>
+      <c r="AB188" s="12"/>
+      <c r="AC188" s="12"/>
+      <c r="AD188" s="12"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="15"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="12"/>
+      <c r="S189" s="12"/>
+      <c r="T189" s="12"/>
+      <c r="U189" s="12"/>
+      <c r="V189" s="12"/>
+      <c r="W189" s="12"/>
+      <c r="X189" s="12"/>
+      <c r="Y189" s="12"/>
+      <c r="Z189" s="12"/>
+      <c r="AA189" s="12"/>
+      <c r="AB189" s="12"/>
+      <c r="AC189" s="12"/>
+      <c r="AD189" s="12"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="15"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="12"/>
+      <c r="U190" s="12"/>
+      <c r="V190" s="12"/>
+      <c r="W190" s="12"/>
+      <c r="X190" s="12"/>
+      <c r="Y190" s="12"/>
+      <c r="Z190" s="12"/>
+      <c r="AA190" s="12"/>
+      <c r="AB190" s="12"/>
+      <c r="AC190" s="12"/>
+      <c r="AD190" s="12"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="15"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="12"/>
+      <c r="S191" s="12"/>
+      <c r="T191" s="12"/>
+      <c r="U191" s="12"/>
+      <c r="V191" s="12"/>
+      <c r="W191" s="12"/>
+      <c r="X191" s="12"/>
+      <c r="Y191" s="12"/>
+      <c r="Z191" s="12"/>
+      <c r="AA191" s="12"/>
+      <c r="AB191" s="12"/>
+      <c r="AC191" s="12"/>
+      <c r="AD191" s="12"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="15"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="12"/>
+      <c r="S192" s="12"/>
+      <c r="T192" s="12"/>
+      <c r="U192" s="12"/>
+      <c r="V192" s="12"/>
+      <c r="W192" s="12"/>
+      <c r="X192" s="12"/>
+      <c r="Y192" s="12"/>
+      <c r="Z192" s="12"/>
+      <c r="AA192" s="12"/>
+      <c r="AB192" s="12"/>
+      <c r="AC192" s="12"/>
+      <c r="AD192" s="12"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="15"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="12"/>
+      <c r="S193" s="12"/>
+      <c r="T193" s="12"/>
+      <c r="U193" s="12"/>
+      <c r="V193" s="12"/>
+      <c r="W193" s="12"/>
+      <c r="X193" s="12"/>
+      <c r="Y193" s="12"/>
+      <c r="Z193" s="12"/>
+      <c r="AA193" s="12"/>
+      <c r="AB193" s="12"/>
+      <c r="AC193" s="12"/>
+      <c r="AD193" s="12"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="15"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="12"/>
+      <c r="T194" s="12"/>
+      <c r="U194" s="12"/>
+      <c r="V194" s="12"/>
+      <c r="W194" s="12"/>
+      <c r="X194" s="12"/>
+      <c r="Y194" s="12"/>
+      <c r="Z194" s="12"/>
+      <c r="AA194" s="12"/>
+      <c r="AB194" s="12"/>
+      <c r="AC194" s="12"/>
+      <c r="AD194" s="12"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="15"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="12"/>
+      <c r="T195" s="12"/>
+      <c r="U195" s="12"/>
+      <c r="V195" s="12"/>
+      <c r="W195" s="12"/>
+      <c r="X195" s="12"/>
+      <c r="Y195" s="12"/>
+      <c r="Z195" s="12"/>
+      <c r="AA195" s="12"/>
+      <c r="AB195" s="12"/>
+      <c r="AC195" s="12"/>
+      <c r="AD195" s="12"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="15"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="12"/>
+      <c r="T196" s="12"/>
+      <c r="U196" s="12"/>
+      <c r="V196" s="12"/>
+      <c r="W196" s="12"/>
+      <c r="X196" s="12"/>
+      <c r="Y196" s="12"/>
+      <c r="Z196" s="12"/>
+      <c r="AA196" s="12"/>
+      <c r="AB196" s="12"/>
+      <c r="AC196" s="12"/>
+      <c r="AD196" s="12"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="12"/>
+      <c r="T197" s="12"/>
+      <c r="U197" s="12"/>
+      <c r="V197" s="12"/>
+      <c r="W197" s="12"/>
+      <c r="X197" s="12"/>
+      <c r="Y197" s="12"/>
+      <c r="Z197" s="12"/>
+      <c r="AA197" s="12"/>
+      <c r="AB197" s="12"/>
+      <c r="AC197" s="12"/>
+      <c r="AD197" s="12"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="15"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="12"/>
+      <c r="S198" s="12"/>
+      <c r="T198" s="12"/>
+      <c r="U198" s="12"/>
+      <c r="V198" s="12"/>
+      <c r="W198" s="12"/>
+      <c r="X198" s="12"/>
+      <c r="Y198" s="12"/>
+      <c r="Z198" s="12"/>
+      <c r="AA198" s="12"/>
+      <c r="AB198" s="12"/>
+      <c r="AC198" s="12"/>
+      <c r="AD198" s="12"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="15"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="12"/>
+      <c r="S199" s="12"/>
+      <c r="T199" s="12"/>
+      <c r="U199" s="12"/>
+      <c r="V199" s="12"/>
+      <c r="W199" s="12"/>
+      <c r="X199" s="12"/>
+      <c r="Y199" s="12"/>
+      <c r="Z199" s="12"/>
+      <c r="AA199" s="12"/>
+      <c r="AB199" s="12"/>
+      <c r="AC199" s="12"/>
+      <c r="AD199" s="12"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="15"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="12"/>
+      <c r="T200" s="12"/>
+      <c r="U200" s="12"/>
+      <c r="V200" s="12"/>
+      <c r="W200" s="12"/>
+      <c r="X200" s="12"/>
+      <c r="Y200" s="12"/>
+      <c r="Z200" s="12"/>
+      <c r="AA200" s="12"/>
+      <c r="AB200" s="12"/>
+      <c r="AC200" s="12"/>
+      <c r="AD200" s="12"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="15"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="12"/>
+      <c r="R201" s="12"/>
+      <c r="S201" s="12"/>
+      <c r="T201" s="12"/>
+      <c r="U201" s="12"/>
+      <c r="V201" s="12"/>
+      <c r="W201" s="12"/>
+      <c r="X201" s="12"/>
+      <c r="Y201" s="12"/>
+      <c r="Z201" s="12"/>
+      <c r="AA201" s="12"/>
+      <c r="AB201" s="12"/>
+      <c r="AC201" s="12"/>
+      <c r="AD201" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:I40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <autoFilter ref="B1:I40"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D6" r:id="rId6" location="diff-e551f4d229d2dc26f2a3d00a57f76efb3d3646b526420554f799c917ef17e02b" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D30" r:id="rId32" location="diff-e51f1ed8f8a6867738911bf9d35c4ed3a179cf37f94630ab6c0e76ed7c78208f" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C31" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D31" r:id="rId34" location="diff-6cfdc3c847382577c6c4e5c3b19c7dc2f5cac685f0ad1f4953c72c101135a1c7" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C32" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D32" r:id="rId36" location="diff-6cfdc3c847382577c6c4e5c3b19c7dc2f5cac685f0ad1f4953c72c101135a1c7" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C33" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D33" r:id="rId38" location="diff-6cfdc3c847382577c6c4e5c3b19c7dc2f5cac685f0ad1f4953c72c101135a1c7" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C34" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D34" r:id="rId40" location="diff-6cfdc3c847382577c6c4e5c3b19c7dc2f5cac685f0ad1f4953c72c101135a1c7" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D35" r:id="rId42" location="diff-5e63748d3f5b199ba920a39d9e934218e9eb3d2627eede7d0907b99b748a0351" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C36" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D36" r:id="rId44" location="diff-565b6a60bef7519d8dd1f0754ab2e47c74b990c6cb63176476c4e62a5b2ac263" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C37" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C38" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C39" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C40" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D40" r:id="rId49" location="diff-010905b3ed13ec9be85170f0739b3985a35352e1dd92d4b4d14a0f14f93221ed" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="H9" r:id="rId50" tooltip="https://github.com/rudmannn/ConfFix/tree/main/reproduction_videos/fenix/theme_automatic_radio_button" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H2" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H3" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="H4" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="H5" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H6" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H7" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H8" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H10" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H11" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H12" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H13" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H14" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H15" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H16" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H17" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H18" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H19" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H20" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H21" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H22" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H23" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H24" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H25" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H26" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H27" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H28" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H29" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H30" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H31" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H33" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H34" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H35" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H32" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H36" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H37" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H38" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H39" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H40" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="H5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="H6" r:id="rId11"/>
+    <hyperlink ref="C7" r:id="rId12"/>
+    <hyperlink ref="H7" r:id="rId13"/>
+    <hyperlink ref="C8" r:id="rId14"/>
+    <hyperlink ref="H8" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="H9" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="H10" r:id="rId19"/>
+    <hyperlink ref="C11" r:id="rId20"/>
+    <hyperlink ref="H11" r:id="rId21"/>
+    <hyperlink ref="C12" r:id="rId22"/>
+    <hyperlink ref="H12" r:id="rId23"/>
+    <hyperlink ref="C13" r:id="rId24"/>
+    <hyperlink ref="H13" r:id="rId25"/>
+    <hyperlink ref="C14" r:id="rId26"/>
+    <hyperlink ref="H14" r:id="rId27"/>
+    <hyperlink ref="C15" r:id="rId28"/>
+    <hyperlink ref="H15" r:id="rId29"/>
+    <hyperlink ref="C16" r:id="rId30"/>
+    <hyperlink ref="H16" r:id="rId31"/>
+    <hyperlink ref="C17" r:id="rId32"/>
+    <hyperlink ref="H17" r:id="rId33"/>
+    <hyperlink ref="B18" r:id="rId34"/>
+    <hyperlink ref="C18" r:id="rId35"/>
+    <hyperlink ref="H18" r:id="rId36"/>
+    <hyperlink ref="C19" r:id="rId37"/>
+    <hyperlink ref="H19" r:id="rId38"/>
+    <hyperlink ref="C20" r:id="rId39"/>
+    <hyperlink ref="H20" r:id="rId40"/>
+    <hyperlink ref="C21" r:id="rId41"/>
+    <hyperlink ref="H21" r:id="rId42"/>
+    <hyperlink ref="C22" r:id="rId43"/>
+    <hyperlink ref="H22" r:id="rId44"/>
+    <hyperlink ref="C23" r:id="rId45"/>
+    <hyperlink ref="H23" r:id="rId46"/>
+    <hyperlink ref="C24" r:id="rId47"/>
+    <hyperlink ref="H24" r:id="rId48"/>
+    <hyperlink ref="C25" r:id="rId49"/>
+    <hyperlink ref="H25" r:id="rId50"/>
+    <hyperlink ref="C26" r:id="rId51"/>
+    <hyperlink ref="H26" r:id="rId52"/>
+    <hyperlink ref="C27" r:id="rId53"/>
+    <hyperlink ref="H27" r:id="rId54"/>
+    <hyperlink ref="C28" r:id="rId55"/>
+    <hyperlink ref="H28" r:id="rId56"/>
+    <hyperlink ref="C29" r:id="rId57"/>
+    <hyperlink ref="H29" r:id="rId58"/>
+    <hyperlink ref="C30" r:id="rId59"/>
+    <hyperlink ref="D30" r:id="rId60"/>
+    <hyperlink ref="H30" r:id="rId61"/>
+    <hyperlink ref="C31" r:id="rId62"/>
+    <hyperlink ref="D31" r:id="rId63"/>
+    <hyperlink ref="H31" r:id="rId64"/>
+    <hyperlink ref="C32" r:id="rId65"/>
+    <hyperlink ref="D32" r:id="rId66"/>
+    <hyperlink ref="H32" r:id="rId67"/>
+    <hyperlink ref="C33" r:id="rId68"/>
+    <hyperlink ref="D33" r:id="rId69"/>
+    <hyperlink ref="H33" r:id="rId70"/>
+    <hyperlink ref="C34" r:id="rId71"/>
+    <hyperlink ref="D34" r:id="rId72"/>
+    <hyperlink ref="H34" r:id="rId73"/>
+    <hyperlink ref="C35" r:id="rId74"/>
+    <hyperlink ref="D35" r:id="rId75"/>
+    <hyperlink ref="H35" r:id="rId76"/>
+    <hyperlink ref="C36" r:id="rId77"/>
+    <hyperlink ref="D36" r:id="rId78"/>
+    <hyperlink ref="H36" r:id="rId79"/>
+    <hyperlink ref="C37" r:id="rId80"/>
+    <hyperlink ref="H37" r:id="rId81"/>
+    <hyperlink ref="C38" r:id="rId82"/>
+    <hyperlink ref="H38" r:id="rId83"/>
+    <hyperlink ref="C39" r:id="rId84"/>
+    <hyperlink ref="H39" r:id="rId85"/>
+    <hyperlink ref="C40" r:id="rId86"/>
+    <hyperlink ref="D40" r:id="rId87"/>
+    <hyperlink ref="H40" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
